--- a/static/data/player.xlsx
+++ b/static/data/player.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eric/WeChatProjects/miniprogram-2/static/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1718BF32-AF61-1B46-A6E8-B4EA2A5A52E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613AAA85-F8DC-644A-8015-8EB4EBC67FCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3220" yWindow="2200" windowWidth="28100" windowHeight="17360" xr2:uid="{B92BEB26-0CFA-B643-9D58-65622837AAAF}"/>
   </bookViews>
@@ -36,55 +36,79 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>avatar</t>
-  </si>
-  <si>
-    <t>victories</t>
-  </si>
-  <si>
-    <t>championships</t>
-  </si>
-  <si>
-    <t>points</t>
-  </si>
-  <si>
-    <t>matches</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+  <si>
+    <t>/static/chat/avatar.png</t>
+  </si>
+  <si>
+    <t>昵称</t>
+  </si>
+  <si>
+    <t>头像</t>
+  </si>
+  <si>
+    <t>胜场数</t>
+  </si>
+  <si>
+    <t>老八数</t>
+  </si>
+  <si>
+    <t>冠军数</t>
+  </si>
+  <si>
+    <t>二七</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>降临</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高墙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>五哥</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿鲁卡多</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>张三</t>
-  </si>
-  <si>
-    <t>/static/chat/avatar.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>羊哥</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>李四</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>王五</t>
-  </si>
-  <si>
-    <t>王六</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>王七</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>王八</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>王九</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>王十</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/static/27.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/static/jianglin.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/static/alukaduo.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/static/5.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/static/gaoqiang.jpg</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -481,72 +505,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E77735C-93E3-AB4E-8F69-EE37004C974E}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C2">
         <v>45</v>
       </c>
       <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
         <v>6</v>
-      </c>
-      <c r="E2">
-        <v>156</v>
-      </c>
-      <c r="F2">
-        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C3">
         <v>38</v>
       </c>
       <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
         <v>8</v>
-      </c>
-      <c r="E3">
-        <v>138</v>
-      </c>
-      <c r="F3">
-        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -554,59 +570,50 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C4">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E4">
-        <v>142</v>
-      </c>
-      <c r="F4">
-        <v>74</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C5">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E5">
-        <v>199</v>
-      </c>
-      <c r="F5">
-        <v>73</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C6">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D6">
         <v>4</v>
       </c>
       <c r="E6">
-        <v>16</v>
-      </c>
-      <c r="F6">
-        <v>72</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -614,59 +621,67 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E7">
-        <v>15</v>
-      </c>
-      <c r="F7">
-        <v>78</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>13</v>
-      </c>
-      <c r="F8">
-        <v>77</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>7</v>
       </c>
-      <c r="C9">
-        <v>36</v>
-      </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
-      <c r="E9">
-        <v>11</v>
-      </c>
-      <c r="F9">
-        <v>50</v>
+      <c r="E10">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/static/data/player.xlsx
+++ b/static/data/player.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eric/WeChatProjects/miniprogram-2/static/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613AAA85-F8DC-644A-8015-8EB4EBC67FCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{501EA40B-2D7F-3841-BC1C-F44407034F84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3220" yWindow="2200" windowWidth="28100" windowHeight="17360" xr2:uid="{B92BEB26-0CFA-B643-9D58-65622837AAAF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>/static/chat/avatar.png</t>
   </si>
@@ -109,6 +109,10 @@
   </si>
   <si>
     <t>/static/gaoqiang.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -164,11 +168,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -508,7 +515,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="T23" sqref="T23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -529,7 +536,9 @@
       <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
@@ -547,6 +556,9 @@
       <c r="E2">
         <v>6</v>
       </c>
+      <c r="F2" s="2">
+        <v>45767</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
@@ -564,6 +576,9 @@
       <c r="E3">
         <v>8</v>
       </c>
+      <c r="F3" s="2">
+        <v>45767</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
@@ -581,6 +596,9 @@
       <c r="E4">
         <v>1</v>
       </c>
+      <c r="F4" s="2">
+        <v>45767</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
@@ -598,6 +616,9 @@
       <c r="E5">
         <v>2</v>
       </c>
+      <c r="F5" s="2">
+        <v>45767</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
@@ -615,6 +636,9 @@
       <c r="E6">
         <v>3</v>
       </c>
+      <c r="F6" s="2">
+        <v>45767</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
@@ -632,6 +656,9 @@
       <c r="E7">
         <v>4</v>
       </c>
+      <c r="F7" s="2">
+        <v>45767</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
@@ -649,6 +676,9 @@
       <c r="E8">
         <v>5</v>
       </c>
+      <c r="F8" s="2">
+        <v>45767</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
@@ -666,6 +696,9 @@
       <c r="E9">
         <v>6</v>
       </c>
+      <c r="F9" s="2">
+        <v>45767</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
@@ -682,6 +715,9 @@
       </c>
       <c r="E10">
         <v>7</v>
+      </c>
+      <c r="F10" s="2">
+        <v>45767</v>
       </c>
     </row>
   </sheetData>

--- a/static/data/player.xlsx
+++ b/static/data/player.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eric/WeChatProjects/miniprogram-2/static/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{501EA40B-2D7F-3841-BC1C-F44407034F84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BDDDB33-3721-CB4D-B7C7-FB3809078F21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3220" yWindow="2200" windowWidth="28100" windowHeight="17360" xr2:uid="{B92BEB26-0CFA-B643-9D58-65622837AAAF}"/>
   </bookViews>
@@ -36,9 +36,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>/static/chat/avatar.png</t>
+  </si>
+  <si>
+    <t>王六</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王七</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>昵称</t>
@@ -512,40 +520,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E77735C-93E3-AB4E-8F69-EE37004C974E}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T23" sqref="T23"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C2">
         <v>45</v>
@@ -557,15 +565,15 @@
         <v>6</v>
       </c>
       <c r="F2" s="2">
-        <v>45767</v>
+        <v>45759</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>38</v>
@@ -577,15 +585,15 @@
         <v>8</v>
       </c>
       <c r="F3" s="2">
-        <v>45767</v>
+        <v>45760</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4">
         <v>22</v>
@@ -597,15 +605,15 @@
         <v>1</v>
       </c>
       <c r="F4" s="2">
-        <v>45767</v>
+        <v>45761</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C5">
         <v>19</v>
@@ -617,15 +625,15 @@
         <v>2</v>
       </c>
       <c r="F5" s="2">
-        <v>45767</v>
+        <v>45762</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C6">
         <v>30</v>
@@ -637,12 +645,12 @@
         <v>3</v>
       </c>
       <c r="F6" s="2">
-        <v>45767</v>
+        <v>45763</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
@@ -657,12 +665,12 @@
         <v>4</v>
       </c>
       <c r="F7" s="2">
-        <v>45767</v>
+        <v>45764</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
@@ -677,12 +685,12 @@
         <v>5</v>
       </c>
       <c r="F8" s="2">
-        <v>45767</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
@@ -697,12 +705,12 @@
         <v>6</v>
       </c>
       <c r="F9" s="2">
-        <v>45767</v>
+        <v>45766</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>0</v>
@@ -718,6 +726,46 @@
       </c>
       <c r="F10" s="2">
         <v>45767</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <v>7</v>
+      </c>
+      <c r="F11" s="2">
+        <v>45768</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>7</v>
+      </c>
+      <c r="E12">
+        <v>7</v>
+      </c>
+      <c r="F12" s="2">
+        <v>45769</v>
       </c>
     </row>
   </sheetData>

--- a/static/data/player.xlsx
+++ b/static/data/player.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eric/WeChatProjects/miniprogram-2/static/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BDDDB33-3721-CB4D-B7C7-FB3809078F21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90795605-B4D6-814B-BC7E-489EF7CA0593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3220" yWindow="2200" windowWidth="28100" windowHeight="17360" xr2:uid="{B92BEB26-0CFA-B643-9D58-65622837AAAF}"/>
   </bookViews>
@@ -523,7 +523,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -556,7 +556,7 @@
         <v>17</v>
       </c>
       <c r="C2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D2">
         <v>1</v>
